--- a/mernbackend/src/upload/output.xlsx
+++ b/mernbackend/src/upload/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -482,16 +482,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>64305c408308b73e07cd220e</v>
+        <v>643a734be159597cf029869f</v>
       </c>
       <c r="B4" t="str">
-        <v>hero electric</v>
+        <v>Mercedes</v>
       </c>
       <c r="C4">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="D4" t="str">
-        <v>petrol</v>
+        <v>diesel</v>
       </c>
       <c r="E4" t="str">
         <v>Bayerische Motoren Werke AG, abbreviated as BMW, is a German multinational manufacturer of luxury vehicles and motorcycles headquartered in Munich, Bavaria. The corporation was founded in 1916 as a manufacturer of aircraft engines, which it produced from 1917 until 1918 and again from 1933 to 1945.</v>
@@ -500,15 +500,41 @@
         <v>2</v>
       </c>
       <c r="G4" t="str">
-        <v>/upload/avatar-1680890944528.webp</v>
+        <v>/upload/avatar-1681552203069.avif</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>644391d59c594d30b0cc4721</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Hyundai 1.0</v>
+      </c>
+      <c r="C5">
+        <v>3000</v>
+      </c>
+      <c r="D5" t="str">
+        <v>petrol</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Bayerische Motoren Werke AG, abbreviated as BMW, is a German multinational manufacturer of luxury vehicles and motorcycles headquartered in Munich, Bavaria. The corporation was founded in 1916 as a manufacturer of aircraft engines, which it produced from 1917 until 1918 and again from 1933 to 1945.</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="str">
+        <v>/upload/image-1682150019584.jpg</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/mernbackend/src/upload/output.xlsx
+++ b/mernbackend/src/upload/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -532,9 +532,61 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>6444ef4b0181a0655cdd09ca</v>
+      </c>
+      <c r="B6" t="str">
+        <v xml:space="preserve">Toyota Innova </v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6" t="str">
+        <v>diesel</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Bayerische Motoren Werke AG, abbreviated as BMW, is a German multinational manufacturer of luxury vehicles and motorcycles headquartered in Munich, Bavaria. The corporation was founded in 1916 as a manufacturer of aircraft engines, which it produced from 1917 until 1918 and again from 1933 to 1945.</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="str">
+        <v>/upload/image-1682239403451.jpg</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>6446631a2cb7d38a677d11f3</v>
+      </c>
+      <c r="B7" t="str">
+        <v>mini cooper</v>
+      </c>
+      <c r="C7">
+        <v>5000</v>
+      </c>
+      <c r="D7" t="str">
+        <v>petrol</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Bayerische Motoren Werke AG, abbreviated as BMW, is a German multinational manufacturer of luxury vehicles and motorcycles headquartered in Munich, Bavaria. The corporation was founded in 1916 as a manufacturer of aircraft engines, which it produced from 1917 until 1918 and again from 1933 to 1945.</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <v>/upload/avatar-1682334490021.avif</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H7"/>
   </ignoredErrors>
 </worksheet>
 </file>